--- a/yatong_h6.xlsx
+++ b/yatong_h6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuanAPI-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guanauto-test\GuanAuto-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,28 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看团队报备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看认筹列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看成交报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pro_003</t>
-  </si>
-  <si>
-    <t>pro_004</t>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,70 +77,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/biz/h5/out/putrecord/onsite/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/biz/h5/out/putrecord/onsite/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/biz/h5/out/recognize/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/biz/h5/out/tumoverreport/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pro_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pro_002</t>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pro_005</t>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/biz/h5/in/putrecord/mePutrecordList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Eaton-Origin':"STANDARDH5",
+ 'Eaton-Company-CODE': "CSGS",
+ 'Content-Type':'application/json;charset=UTF-8',
+  'Eaton-Project-ID': "1274716042220154882"
+ }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"pageNo": 1,
 "pageSize": 5,
-"putrecordType": 1,
-"menuType": 1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pageNo": 1,
-"pageSize": 5,
-"putrecordType": 1,
-"menuType": 2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pageSize": 5,
-"pageNo": 1,
-"menuType": 1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pageNo": 1,
-"pageSize": 5,
-"menuType": 1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pageNo": 1,
-"pageSize": 5,
-"menuType": 2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看团队成交报告</t>
+"noData": "false",
+"orderType": "1"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +206,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,28 +517,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="52.125" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,174 +554,70 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10">
+        <v>13300000014</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5">
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:M1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
